--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436197.8132806728</v>
+        <v>433759.3401809256</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>43.56973891764829</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>298.9787503760128</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>193.0439640562715</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>253.4533844459141</v>
+        <v>267.8635071306609</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210.0950343963913</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476221</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.29609327028572</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>122.4424591077297</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.4702381038687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.62939195024471</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>249.8262819312472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>167.3637267182072</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.619705459988987</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0177171766861</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833711</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>53.11937003878228</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637018</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788181733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>877.7606185890727</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D2" t="n">
-        <v>519.4949199823222</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>261.5060195193263</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>261.5060195193263</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>261.5060195193263</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1855.256201414569</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>1855.256201414569</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>1855.256201414569</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414569</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916659</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178698</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304341</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2560.051851098454</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2304.038331456117</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>2076.048780558099</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>1855.256201414569</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1901.535346136983</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1532.572829196571</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176916</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.135186201105</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>163.837793613838</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.7094242895083</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,25 +4814,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>215.0609594592682</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>215.0609594592682</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>215.0609594592682</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>67.14786587687504</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>67.14786587687504</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4996,16 +4996,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>627.8744564335971</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X10" t="n">
-        <v>627.8744564335971</v>
+        <v>617.502003433038</v>
       </c>
       <c r="Y10" t="n">
-        <v>627.8744564335971</v>
+        <v>396.7094242895079</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535069</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498108</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.825401600091</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.032822456561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>403.3505586019938</v>
+        <v>197.0043242297702</v>
       </c>
       <c r="F16" t="n">
-        <v>403.3505586019938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>236.1544593168738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>94.44262815907186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,16 +6060,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
         <v>589.1422692637307</v>
@@ -6081,7 +6081,7 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703146</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424077</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300719</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300719</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>229.5592957321616</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>229.5592957321616</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703146</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>321.7031528533593</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>82.95161969624895</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>233.0166707378222</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>84.77391660562077</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295086</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>80.64613085857654</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365923</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>38.59775584152629</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459413</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>87.17534280744158</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.7240910182355</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392193992</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>100.7734165143921</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>965186.3956523297</v>
+        <v>965186.3956523301</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631196</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="F2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383394.6348527531</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="I2" t="n">
         <v>383394.6348527531</v>
       </c>
-      <c r="I2" t="n">
-        <v>383394.6348527532</v>
-      </c>
       <c r="J2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="K2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.634852753</v>
-      </c>
       <c r="M2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554098</v>
+        <v>50848.90313554124</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26442,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132947.492561407</v>
+        <v>-1133133.885949946</v>
       </c>
       <c r="C6" t="n">
-        <v>188657.1132759349</v>
+        <v>188657.1132759347</v>
       </c>
       <c r="D6" t="n">
         <v>188657.1132759349</v>
       </c>
       <c r="E6" t="n">
-        <v>-57357.10885536437</v>
+        <v>-57391.8467808003</v>
       </c>
       <c r="F6" t="n">
-        <v>268055.3529519909</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="G6" t="n">
-        <v>268055.3529519907</v>
+        <v>268020.615026555</v>
       </c>
       <c r="H6" t="n">
-        <v>268055.352951991</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="I6" t="n">
-        <v>268055.352951991</v>
+        <v>268020.6150265552</v>
       </c>
       <c r="J6" t="n">
-        <v>50524.15055471328</v>
+        <v>50489.41262927785</v>
       </c>
       <c r="K6" t="n">
-        <v>268055.3529519909</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="L6" t="n">
-        <v>268055.3529519908</v>
+        <v>268020.615026555</v>
       </c>
       <c r="M6" t="n">
-        <v>183000.3250164791</v>
+        <v>182965.5870910431</v>
       </c>
       <c r="N6" t="n">
-        <v>268055.3529519908</v>
+        <v>268020.6150265551</v>
       </c>
       <c r="O6" t="n">
-        <v>268055.3529519906</v>
+        <v>268020.615026555</v>
       </c>
       <c r="P6" t="n">
-        <v>268055.3529519907</v>
+        <v>268020.615026555</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26808,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>177.9050549156312</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>101.563800331049</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.06961389067686</v>
+        <v>18.65949120593012</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>144.5880072242917</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408939</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.5358869116516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>96.14219424436506</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.2636035596119</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087835</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>36.69671640534378</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,7 +32084,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236508</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899094</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
